--- a/data/nzd0130/nzd0130.xlsx
+++ b/data/nzd0130/nzd0130.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K602"/>
+  <dimension ref="A1:K609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21423,6 +21423,273 @@
         <v>401.44</v>
       </c>
       <c r="K602" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr"/>
+      <c r="C603" t="n">
+        <v>406.01</v>
+      </c>
+      <c r="D603" t="n">
+        <v>385.9533333333333</v>
+      </c>
+      <c r="E603" t="n">
+        <v>382.2885714285715</v>
+      </c>
+      <c r="F603" t="n">
+        <v>387.2285714285715</v>
+      </c>
+      <c r="G603" t="n">
+        <v>389.5255555555556</v>
+      </c>
+      <c r="H603" t="n">
+        <v>375.9755555555556</v>
+      </c>
+      <c r="I603" t="n">
+        <v>377.9585714285714</v>
+      </c>
+      <c r="J603" t="n">
+        <v>460.6933333333333</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>399.3766666666667</v>
+      </c>
+      <c r="C604" t="n">
+        <v>404.39</v>
+      </c>
+      <c r="D604" t="n">
+        <v>386.4433333333333</v>
+      </c>
+      <c r="E604" t="n">
+        <v>387.6128571428572</v>
+      </c>
+      <c r="F604" t="n">
+        <v>388.1028571428572</v>
+      </c>
+      <c r="G604" t="n">
+        <v>388.7055555555555</v>
+      </c>
+      <c r="H604" t="n">
+        <v>377.6555555555556</v>
+      </c>
+      <c r="I604" t="n">
+        <v>376.7528571428572</v>
+      </c>
+      <c r="J604" t="n">
+        <v>430.5433333333333</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>431.4233333333333</v>
+      </c>
+      <c r="C605" t="n">
+        <v>420.3</v>
+      </c>
+      <c r="D605" t="n">
+        <v>404.3866666666667</v>
+      </c>
+      <c r="E605" t="n">
+        <v>395.6071428571428</v>
+      </c>
+      <c r="F605" t="n">
+        <v>403.1371428571428</v>
+      </c>
+      <c r="G605" t="n">
+        <v>395.3044444444445</v>
+      </c>
+      <c r="H605" t="n">
+        <v>391.4244444444445</v>
+      </c>
+      <c r="I605" t="n">
+        <v>397.1371428571428</v>
+      </c>
+      <c r="J605" t="n">
+        <v>399.5966666666667</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>445.22</v>
+      </c>
+      <c r="C606" t="n">
+        <v>428.75</v>
+      </c>
+      <c r="D606" t="n">
+        <v>410.96</v>
+      </c>
+      <c r="E606" t="n">
+        <v>401.32</v>
+      </c>
+      <c r="F606" t="n">
+        <v>401.29</v>
+      </c>
+      <c r="G606" t="n">
+        <v>396.2866666666667</v>
+      </c>
+      <c r="H606" t="n">
+        <v>388.4466666666667</v>
+      </c>
+      <c r="I606" t="n">
+        <v>390.87</v>
+      </c>
+      <c r="J606" t="n">
+        <v>412.24</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr"/>
+      <c r="C607" t="n">
+        <v>403.53</v>
+      </c>
+      <c r="D607" t="n">
+        <v>397.1966666666667</v>
+      </c>
+      <c r="E607" t="n">
+        <v>392.7614285714286</v>
+      </c>
+      <c r="F607" t="n">
+        <v>393.4414285714286</v>
+      </c>
+      <c r="G607" t="n">
+        <v>395.7911111111111</v>
+      </c>
+      <c r="H607" t="n">
+        <v>383.5111111111111</v>
+      </c>
+      <c r="I607" t="n">
+        <v>381.6314285714286</v>
+      </c>
+      <c r="J607" t="n">
+        <v>460.6266666666667</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr"/>
+      <c r="C608" t="n">
+        <v>408.61</v>
+      </c>
+      <c r="D608" t="n">
+        <v>395.8266666666667</v>
+      </c>
+      <c r="E608" t="n">
+        <v>396.1571428571429</v>
+      </c>
+      <c r="F608" t="n">
+        <v>396.1871428571428</v>
+      </c>
+      <c r="G608" t="n">
+        <v>396.0711111111111</v>
+      </c>
+      <c r="H608" t="n">
+        <v>384.9611111111111</v>
+      </c>
+      <c r="I608" t="n">
+        <v>386.9971428571428</v>
+      </c>
+      <c r="J608" t="n">
+        <v>467.1666666666667</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:57+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>451.3233333333333</v>
+      </c>
+      <c r="C609" t="n">
+        <v>410.96</v>
+      </c>
+      <c r="D609" t="n">
+        <v>402.0766666666667</v>
+      </c>
+      <c r="E609" t="n">
+        <v>399.6185714285714</v>
+      </c>
+      <c r="F609" t="n">
+        <v>405.3185714285714</v>
+      </c>
+      <c r="G609" t="n">
+        <v>402.2477777777778</v>
+      </c>
+      <c r="H609" t="n">
+        <v>393.4477777777778</v>
+      </c>
+      <c r="I609" t="n">
+        <v>390.7085714285714</v>
+      </c>
+      <c r="J609" t="n">
+        <v>464.7866666666667</v>
+      </c>
+      <c r="K609" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -21439,7 +21706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B610"/>
+  <dimension ref="A1:B617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27547,6 +27814,76 @@
       </c>
       <c r="B610" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -27715,28 +28052,28 @@
         <v>0.0165</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1783058241908885</v>
+        <v>-0.1850254487860224</v>
       </c>
       <c r="J2" t="n">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="K2" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003520979098733945</v>
+        <v>0.003827168074744813</v>
       </c>
       <c r="M2" t="n">
-        <v>18.33962420245933</v>
+        <v>18.32699660059209</v>
       </c>
       <c r="N2" t="n">
-        <v>507.4739147530718</v>
+        <v>506.7105464225057</v>
       </c>
       <c r="O2" t="n">
-        <v>22.52718168686602</v>
+        <v>22.51023203839769</v>
       </c>
       <c r="P2" t="n">
-        <v>440.6235536892855</v>
+        <v>440.6868098218795</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -27792,28 +28129,28 @@
         <v>0.0203</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1281887533735738</v>
+        <v>-0.1378187907651177</v>
       </c>
       <c r="J3" t="n">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="K3" t="n">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00414465449215673</v>
+        <v>0.004906449109058908</v>
       </c>
       <c r="M3" t="n">
-        <v>11.63114830157543</v>
+        <v>11.58986849251139</v>
       </c>
       <c r="N3" t="n">
-        <v>212.8553105801013</v>
+        <v>210.9619161006253</v>
       </c>
       <c r="O3" t="n">
-        <v>14.58956169938293</v>
+        <v>14.52452808529851</v>
       </c>
       <c r="P3" t="n">
-        <v>418.4310863819343</v>
+        <v>418.5245130777066</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -27869,28 +28206,28 @@
         <v>0.0305</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1418738446936851</v>
+        <v>-0.1450157511778224</v>
       </c>
       <c r="J4" t="n">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="K4" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01011898419859925</v>
+        <v>0.01076831890326713</v>
       </c>
       <c r="M4" t="n">
-        <v>7.913894752760916</v>
+        <v>7.905075163684337</v>
       </c>
       <c r="N4" t="n">
-        <v>105.9785603582244</v>
+        <v>105.5169882459856</v>
       </c>
       <c r="O4" t="n">
-        <v>10.29458888728561</v>
+        <v>10.27214623367413</v>
       </c>
       <c r="P4" t="n">
-        <v>402.3328403133547</v>
+        <v>402.3630816270492</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -27946,28 +28283,28 @@
         <v>0.036</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07816361574517708</v>
+        <v>-0.07306688201192445</v>
       </c>
       <c r="J5" t="n">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="K5" t="n">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002359509784536806</v>
+        <v>0.002112467962003373</v>
       </c>
       <c r="M5" t="n">
-        <v>8.77730826950587</v>
+        <v>8.731758673045015</v>
       </c>
       <c r="N5" t="n">
-        <v>139.4135186242218</v>
+        <v>138.0377559144571</v>
       </c>
       <c r="O5" t="n">
-        <v>11.80735019486683</v>
+        <v>11.74894701300747</v>
       </c>
       <c r="P5" t="n">
-        <v>393.7310352183795</v>
+        <v>393.6807385690122</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -28023,28 +28360,28 @@
         <v>0.0365</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02620552458695318</v>
+        <v>-0.02358275147889758</v>
       </c>
       <c r="J6" t="n">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="K6" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003938658958146934</v>
+        <v>0.0003260814999994643</v>
       </c>
       <c r="M6" t="n">
-        <v>7.647974201929466</v>
+        <v>7.622677202461936</v>
       </c>
       <c r="N6" t="n">
-        <v>95.56645418688585</v>
+        <v>94.84614487576697</v>
       </c>
       <c r="O6" t="n">
-        <v>9.775809643547989</v>
+        <v>9.738898545306187</v>
       </c>
       <c r="P6" t="n">
-        <v>396.1029377861959</v>
+        <v>396.0772586927483</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -28100,28 +28437,28 @@
         <v>0.0461</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05224126141743701</v>
+        <v>0.0537263473981686</v>
       </c>
       <c r="J7" t="n">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="K7" t="n">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001680279966242759</v>
+        <v>0.001822239872669495</v>
       </c>
       <c r="M7" t="n">
-        <v>7.335013473055873</v>
+        <v>7.279322828601037</v>
       </c>
       <c r="N7" t="n">
-        <v>89.06850973688898</v>
+        <v>88.04736936595511</v>
       </c>
       <c r="O7" t="n">
-        <v>9.437611442356005</v>
+        <v>9.383355975660047</v>
       </c>
       <c r="P7" t="n">
-        <v>392.9861541310673</v>
+        <v>392.9713935497232</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28177,28 +28514,28 @@
         <v>0.0512</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0255997745785791</v>
+        <v>-0.0312855125270259</v>
       </c>
       <c r="J8" t="n">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="K8" t="n">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004034175525448047</v>
+        <v>0.0006152312226166412</v>
       </c>
       <c r="M8" t="n">
-        <v>7.418788070762825</v>
+        <v>7.391897294673889</v>
       </c>
       <c r="N8" t="n">
-        <v>88.47817148333814</v>
+        <v>87.80935818699804</v>
       </c>
       <c r="O8" t="n">
-        <v>9.406283616994447</v>
+        <v>9.370664767613771</v>
       </c>
       <c r="P8" t="n">
-        <v>387.874827028223</v>
+        <v>387.930045796816</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -28254,28 +28591,28 @@
         <v>0.0397</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1155820281051787</v>
+        <v>-0.125050036259068</v>
       </c>
       <c r="J9" t="n">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="K9" t="n">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006764113307544672</v>
+        <v>0.008071666767502483</v>
       </c>
       <c r="M9" t="n">
-        <v>8.074335478592442</v>
+        <v>8.050786280263527</v>
       </c>
       <c r="N9" t="n">
-        <v>106.3650045768169</v>
+        <v>105.6819874596394</v>
       </c>
       <c r="O9" t="n">
-        <v>10.31334109669688</v>
+        <v>10.28017448585574</v>
       </c>
       <c r="P9" t="n">
-        <v>392.4060517415381</v>
+        <v>392.4984905204045</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -28331,28 +28668,28 @@
         <v>0.031</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1413012587598881</v>
+        <v>0.2098441155349375</v>
       </c>
       <c r="J10" t="n">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="K10" t="n">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001752044642596817</v>
+        <v>0.003876306497280879</v>
       </c>
       <c r="M10" t="n">
-        <v>21.13986053810581</v>
+        <v>21.37269395043755</v>
       </c>
       <c r="N10" t="n">
-        <v>600.4954013816821</v>
+        <v>608.3856681322638</v>
       </c>
       <c r="O10" t="n">
-        <v>24.50500767969033</v>
+        <v>24.66547522615901</v>
       </c>
       <c r="P10" t="n">
-        <v>419.0326396214257</v>
+        <v>418.3506890913566</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -28389,7 +28726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K602"/>
+  <dimension ref="A1:K609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57703,6 +58040,393 @@
         </is>
       </c>
     </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr"/>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>-36.51917303022219,174.72135534865708</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>-36.51979705843267,174.72085703647448</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>-36.52047433798477,174.72056819937612</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>-36.52117072488885,174.7203942654444</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>-36.52186332824183,174.7202632576512</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>-36.52255880853307,174.7200345851461</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>-36.523261916407336,174.72001065324227</t>
+        </is>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>-36.52383131417463,174.72105411102578</t>
+        </is>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>-36.51847045682956,174.72157161739997</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>-36.519168537301965,174.72133813786292</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>-36.51979833082727,174.7208622757292</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>-36.520486656035246,174.72062565795855</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>-36.52117234612065,174.7204038189014</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>-36.52186243163857,174.7202541690312</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>-36.522559677745996,174.72005331353594</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>-36.52326258861567,174.7199972155785</t>
+        </is>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>-36.52387552231039,174.72072192810276</t>
+        </is>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>-36.518559334506726,174.72191207688346</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>-36.51921266210589,174.72150716494238</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>-36.519844924543904,174.7210541323595</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>-36.52050515123596,174.7207119306571</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>-36.52120022482866,174.7205681009543</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>-36.52186964696664,174.7203273090287</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>-36.52256680150143,174.72020680707018</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>-36.523251223791114,174.7202243980326</t>
+        </is>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>-36.52392089762451,174.72038096733348</t>
+        </is>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>-36.51859759763992,174.72205865104655</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>-36.51923609724154,174.72159693741298</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>-36.51986199353601,174.72112441687926</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>-36.52051836819267,174.72077358266824</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>-36.521196799606386,174.720547916922</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>-36.52187072093987,174.7203381956702</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>-36.5225652608739,174.72017361124279</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>-36.52325471794911,174.7201545508605</t>
+        </is>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>-36.523902359549986,174.7205202677092</t>
+        </is>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr"/>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>-36.519166152170456,174.72132900126925</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>-36.51982625420338,174.72097725424453</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>-36.52049856753349,174.72068122028534</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>-36.52118224568438,174.7204621543157</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>-36.52187017909379,174.7203327030886</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>-36.52256270732085,174.72011859039964</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>-36.52325986871127,174.72005158716655</t>
+        </is>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>-36.52383141192719,174.72105337651453</t>
+        </is>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr"/>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>-36.51918024107648,174.72138297092334</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>-36.51982269670577,174.72096260570643</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>-36.52050642368758,174.7207178661462</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>-36.52118733718004,174.7204921571753</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>-36.521870485249,174.72033580652035</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>-36.52256345752312,174.72013475478485</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>-36.52325687718615,174.72011138794716</t>
+        </is>
+      </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>-36.52382182238026,174.7211254320592</t>
+        </is>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:57+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>-36.51861452432597,174.72212349218563</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>-36.51918675857378,174.72140793720664</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>-36.51983892615071,174.7210294329891</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>-36.52051443186313,174.7207552211895</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>-36.5212042699243,174.7205919377835</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>-36.5218772388668,174.72040426675224</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>-36.52256784831805,174.72022936289224</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>-36.52325480795081,174.72015275174246</t>
+        </is>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>-36.52382531215922,174.72109921001308</t>
+        </is>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0130/nzd0130.xlsx
+++ b/data/nzd0130/nzd0130.xlsx
@@ -27897,7 +27897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27988,35 +27988,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -28075,27 +28080,28 @@
       <c r="P2" t="n">
         <v>440.6868098218795</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.7173287557262 -36.51736274902051, 174.7271201976483 -36.51991877745389)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7173287557262</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.51736274902051</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7271201976483</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.51991877745389</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7222244766872</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.5186407632372</v>
       </c>
     </row>
@@ -28152,27 +28158,28 @@
       <c r="P3" t="n">
         <v>418.5245130777066</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.71704197939616 -36.518046919558934, 174.72683347274824 -36.52060295369539)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.7170419793962</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.51804691955893</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7268334727482</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.52060295369539</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.7219377260722</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.51932493662716</v>
       </c>
     </row>
@@ -28229,27 +28236,28 @@
       <c r="P4" t="n">
         <v>402.3630816270492</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.71673033650504 -36.51879477126918, 174.72658503542593 -36.5211879844441)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.716730336505</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.51879477126918</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.7265850354259</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.5211879844441</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7216576859655</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.51999137785664</v>
       </c>
     </row>
@@ -28306,27 +28314,28 @@
       <c r="P5" t="n">
         <v>393.6807385690122</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.71644266565514 -36.519589817022535, 174.72638923686702 -36.52172209806239)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.7164426656551</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.51958981702253</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.726389236867</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.52172209806239</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7214159512611</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.52065595754246</v>
       </c>
     </row>
@@ -28383,27 +28392,28 @@
       <c r="P6" t="n">
         <v>396.0772586927483</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.71616299448442 -36.52045259120365, 174.7262346547888 -36.5221616886152)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.7161629944844</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.52045259120365</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7262346547888</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.5221616886152</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7211988246366</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.52130713990942</v>
       </c>
     </row>
@@ -28460,27 +28470,28 @@
       <c r="P7" t="n">
         <v>392.9713935497232</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.71594590040732 -36.52143733509959, 174.72616222689933 -36.52244511746233)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7159459004073</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.52143733509959</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7261622268993</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.52244511746233</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.7210540636533</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.52194122628096</v>
       </c>
     </row>
@@ -28537,27 +28548,28 @@
       <c r="P8" t="n">
         <v>387.930045796816</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.71584327320357 -36.52236420875845, 174.72611889268813 -36.522841034343415)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.7158432732036</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.52236420875845</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.7261188926881</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.52284103434341</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.7209810829459</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.52260262155093</v>
       </c>
     </row>
@@ -28614,27 +28626,28 @@
       <c r="P9" t="n">
         <v>392.4984905204045</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.71579829745437 -36.52347256151193, 174.72607122836018 -36.52295858572465)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.7157982974544</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.52347256151193</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.7260712283602</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.52295858572465</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.7209347629073</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.52321557361829</v>
       </c>
     </row>
@@ -28691,27 +28704,28 @@
       <c r="P10" t="n">
         <v>418.3506890913566</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.71597829603397 -36.52450671650768, 174.7261335280038 -36.52315520555492)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.715978296034</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.52450671650768</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.7261335280038</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.52315520555492</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.7210559120189</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.5238309610313</v>
       </c>
     </row>

--- a/data/nzd0130/nzd0130.xlsx
+++ b/data/nzd0130/nzd0130.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K609"/>
+  <dimension ref="A1:K616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21692,6 +21692,273 @@
       <c r="K609" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>456.0933333333333</v>
+      </c>
+      <c r="C610" t="n">
+        <v>409.88</v>
+      </c>
+      <c r="D610" t="n">
+        <v>401.7466666666666</v>
+      </c>
+      <c r="E610" t="n">
+        <v>398.8657142857143</v>
+      </c>
+      <c r="F610" t="n">
+        <v>402.1657142857143</v>
+      </c>
+      <c r="G610" t="n">
+        <v>400.1277777777778</v>
+      </c>
+      <c r="H610" t="n">
+        <v>391.9777777777778</v>
+      </c>
+      <c r="I610" t="n">
+        <v>392.5357142857143</v>
+      </c>
+      <c r="J610" t="n">
+        <v>461.4366666666667</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>442.2966666666667</v>
+      </c>
+      <c r="C611" t="n">
+        <v>432.65</v>
+      </c>
+      <c r="D611" t="n">
+        <v>405.5633333333333</v>
+      </c>
+      <c r="E611" t="n">
+        <v>403.0742857142857</v>
+      </c>
+      <c r="F611" t="n">
+        <v>399.7442857142857</v>
+      </c>
+      <c r="G611" t="n">
+        <v>398.4788888888889</v>
+      </c>
+      <c r="H611" t="n">
+        <v>388.6588888888889</v>
+      </c>
+      <c r="I611" t="n">
+        <v>399.9442857142857</v>
+      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>453.02</v>
+      </c>
+      <c r="C612" t="n">
+        <v>410.16</v>
+      </c>
+      <c r="D612" t="n">
+        <v>394.19</v>
+      </c>
+      <c r="E612" t="n">
+        <v>392.2671428571429</v>
+      </c>
+      <c r="F612" t="n">
+        <v>398.6571428571429</v>
+      </c>
+      <c r="G612" t="n">
+        <v>395.29</v>
+      </c>
+      <c r="H612" t="n">
+        <v>387.09</v>
+      </c>
+      <c r="I612" t="n">
+        <v>391.2871428571429</v>
+      </c>
+      <c r="J612" t="n">
+        <v>456.24</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>440.4</v>
+      </c>
+      <c r="C613" t="n">
+        <v>403.94</v>
+      </c>
+      <c r="D613" t="n">
+        <v>397.45</v>
+      </c>
+      <c r="E613" t="n">
+        <v>395.8</v>
+      </c>
+      <c r="F613" t="n">
+        <v>395.52</v>
+      </c>
+      <c r="G613" t="n">
+        <v>394.5</v>
+      </c>
+      <c r="H613" t="n">
+        <v>383.24</v>
+      </c>
+      <c r="I613" t="n">
+        <v>385.93</v>
+      </c>
+      <c r="J613" t="n">
+        <v>455.35</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>426.92</v>
+      </c>
+      <c r="C614" t="n">
+        <v>426.05</v>
+      </c>
+      <c r="D614" t="n">
+        <v>409.45</v>
+      </c>
+      <c r="E614" t="n">
+        <v>397.8371428571429</v>
+      </c>
+      <c r="F614" t="n">
+        <v>401.1971428571428</v>
+      </c>
+      <c r="G614" t="n">
+        <v>397.1933333333333</v>
+      </c>
+      <c r="H614" t="n">
+        <v>389.5633333333333</v>
+      </c>
+      <c r="I614" t="n">
+        <v>393.4671428571429</v>
+      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>411.4333333333333</v>
+      </c>
+      <c r="C615" t="n">
+        <v>413.76</v>
+      </c>
+      <c r="D615" t="n">
+        <v>396.3266666666667</v>
+      </c>
+      <c r="E615" t="n">
+        <v>397.8914285714285</v>
+      </c>
+      <c r="F615" t="n">
+        <v>402.0314285714285</v>
+      </c>
+      <c r="G615" t="n">
+        <v>401.2677777777778</v>
+      </c>
+      <c r="H615" t="n">
+        <v>385.6977777777778</v>
+      </c>
+      <c r="I615" t="n">
+        <v>386.1014285714285</v>
+      </c>
+      <c r="J615" t="n">
+        <v>437.1366666666667</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>411.56</v>
+      </c>
+      <c r="C616" t="n">
+        <v>404.76</v>
+      </c>
+      <c r="D616" t="n">
+        <v>401.13</v>
+      </c>
+      <c r="E616" t="n">
+        <v>387.4885714285714</v>
+      </c>
+      <c r="F616" t="n">
+        <v>391.6085714285715</v>
+      </c>
+      <c r="G616" t="n">
+        <v>388.2466666666666</v>
+      </c>
+      <c r="H616" t="n">
+        <v>381.5866666666667</v>
+      </c>
+      <c r="I616" t="n">
+        <v>384.6585714285715</v>
+      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -21706,7 +21973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B617"/>
+  <dimension ref="A1:B624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27884,6 +28151,76 @@
       </c>
       <c r="B617" t="n">
         <v>-0.37</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -28057,28 +28394,28 @@
         <v>0.0165</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1850254487860224</v>
+        <v>-0.1890945798208416</v>
       </c>
       <c r="J2" t="n">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="K2" t="n">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003827168074744813</v>
+        <v>0.004079751152190614</v>
       </c>
       <c r="M2" t="n">
-        <v>18.32699660059209</v>
+        <v>18.28068757159211</v>
       </c>
       <c r="N2" t="n">
-        <v>506.7105464225057</v>
+        <v>503.4111317234636</v>
       </c>
       <c r="O2" t="n">
-        <v>22.51023203839769</v>
+        <v>22.43682534859742</v>
       </c>
       <c r="P2" t="n">
-        <v>440.6868098218795</v>
+        <v>440.7269117926148</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28135,28 +28472,28 @@
         <v>0.0203</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1378187907651177</v>
+        <v>-0.1393287004244134</v>
       </c>
       <c r="J3" t="n">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="K3" t="n">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004906449109058908</v>
+        <v>0.005128914737184131</v>
       </c>
       <c r="M3" t="n">
-        <v>11.58986849251139</v>
+        <v>11.54812665350476</v>
       </c>
       <c r="N3" t="n">
-        <v>210.9619161006253</v>
+        <v>209.3515955270657</v>
       </c>
       <c r="O3" t="n">
-        <v>14.52452808529851</v>
+        <v>14.46898737047848</v>
       </c>
       <c r="P3" t="n">
-        <v>418.5245130777066</v>
+        <v>418.5393505168983</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28213,28 +28550,28 @@
         <v>0.0305</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1450157511778224</v>
+        <v>-0.1391934026604664</v>
       </c>
       <c r="J4" t="n">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="K4" t="n">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01076831890326713</v>
+        <v>0.01017348119167572</v>
       </c>
       <c r="M4" t="n">
-        <v>7.905075163684337</v>
+        <v>7.854570137294143</v>
       </c>
       <c r="N4" t="n">
-        <v>105.5169882459856</v>
+        <v>104.4331525684775</v>
       </c>
       <c r="O4" t="n">
-        <v>10.27214623367413</v>
+        <v>10.21925401232778</v>
       </c>
       <c r="P4" t="n">
-        <v>402.3630816270492</v>
+        <v>402.3056926327564</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28291,28 +28628,28 @@
         <v>0.036</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07306688201192445</v>
+        <v>-0.06173256572965639</v>
       </c>
       <c r="J5" t="n">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="K5" t="n">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002112467962003373</v>
+        <v>0.001544874592073309</v>
       </c>
       <c r="M5" t="n">
-        <v>8.731758673045015</v>
+        <v>8.680440242112887</v>
       </c>
       <c r="N5" t="n">
-        <v>138.0377559144571</v>
+        <v>136.6690343123088</v>
       </c>
       <c r="O5" t="n">
-        <v>11.74894701300747</v>
+        <v>11.69055320813813</v>
       </c>
       <c r="P5" t="n">
-        <v>393.6807385690122</v>
+        <v>393.5689992665518</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28369,28 +28706,28 @@
         <v>0.0365</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02358275147889758</v>
+        <v>-0.01514535370937442</v>
       </c>
       <c r="J6" t="n">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="K6" t="n">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003260814999994643</v>
+        <v>0.0001378824130929823</v>
       </c>
       <c r="M6" t="n">
-        <v>7.622677202461936</v>
+        <v>7.571564596643094</v>
       </c>
       <c r="N6" t="n">
-        <v>94.84614487576697</v>
+        <v>93.83179524985754</v>
       </c>
       <c r="O6" t="n">
-        <v>9.738898545306187</v>
+        <v>9.686681333142818</v>
       </c>
       <c r="P6" t="n">
-        <v>396.0772586927483</v>
+        <v>395.9952456495186</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28447,28 +28784,28 @@
         <v>0.0461</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0537263473981686</v>
+        <v>0.05915324345779718</v>
       </c>
       <c r="J7" t="n">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="K7" t="n">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001822239872669495</v>
+        <v>0.002262067726431782</v>
       </c>
       <c r="M7" t="n">
-        <v>7.279322828601037</v>
+        <v>7.228109658878754</v>
       </c>
       <c r="N7" t="n">
-        <v>88.04736936595511</v>
+        <v>87.08816592615273</v>
       </c>
       <c r="O7" t="n">
-        <v>9.383355975660047</v>
+        <v>9.332104046041961</v>
       </c>
       <c r="P7" t="n">
-        <v>392.9713935497232</v>
+        <v>392.9183200907856</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28525,28 +28862,28 @@
         <v>0.0512</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0312855125270259</v>
+        <v>-0.03208749788103213</v>
       </c>
       <c r="J8" t="n">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="K8" t="n">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006152312226166412</v>
+        <v>0.0006638753138881182</v>
       </c>
       <c r="M8" t="n">
-        <v>7.391897294673889</v>
+        <v>7.327165022665235</v>
       </c>
       <c r="N8" t="n">
-        <v>87.80935818699804</v>
+        <v>86.72623074396499</v>
       </c>
       <c r="O8" t="n">
-        <v>9.370664767613771</v>
+        <v>9.312691917161493</v>
       </c>
       <c r="P8" t="n">
-        <v>387.930045796816</v>
+        <v>387.9381036935885</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28603,28 +28940,28 @@
         <v>0.0397</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.125050036259068</v>
+        <v>-0.1216965002007872</v>
       </c>
       <c r="J9" t="n">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="K9" t="n">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008071666767502483</v>
+        <v>0.00783678852967673</v>
       </c>
       <c r="M9" t="n">
-        <v>8.050786280263527</v>
+        <v>7.997819163353624</v>
       </c>
       <c r="N9" t="n">
-        <v>105.6819874596394</v>
+        <v>104.5339684784114</v>
       </c>
       <c r="O9" t="n">
-        <v>10.28017448585574</v>
+        <v>10.22418546772365</v>
       </c>
       <c r="P9" t="n">
-        <v>392.4984905204045</v>
+        <v>392.4654913486985</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28681,28 +29018,28 @@
         <v>0.031</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2098441155349375</v>
+        <v>0.2663420570727599</v>
       </c>
       <c r="J10" t="n">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="K10" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003876306497280879</v>
+        <v>0.006262795466724924</v>
       </c>
       <c r="M10" t="n">
-        <v>21.37269395043755</v>
+        <v>21.51133983101913</v>
       </c>
       <c r="N10" t="n">
-        <v>608.3856681322638</v>
+        <v>611.313030652634</v>
       </c>
       <c r="O10" t="n">
-        <v>24.66547522615901</v>
+        <v>24.72474531016718</v>
       </c>
       <c r="P10" t="n">
-        <v>418.3506890913566</v>
+        <v>417.7849281436945</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28740,7 +29077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K609"/>
+  <dimension ref="A1:K616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58441,6 +58778,393 @@
         </is>
       </c>
     </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>-36.518627753185484,174.7221741681575</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>-36.51918376329909,174.72139646333977</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>-36.519838069237,174.7210259045079</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>-36.52051269009422,174.7207470965055</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>-36.52119842347477,174.7205574859951</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>-36.521874920845946,174.72038076933742</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>-36.52256708778119,174.72021297554866</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>-36.523253789257346,174.7201731152111</t>
+        </is>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>-36.52383022423334,174.72106230082616</t>
+        </is>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>-36.51858949019753,174.7220275938857</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>-36.51924691343469,174.7216383708784</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>-36.51984798000045,174.7210667137141</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>-36.52052242680653,174.72079251457262</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>-36.5211939333311,174.72053102665024</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>-36.521873117937616,174.7203624935712</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>-36.52256537067267,174.7201759770648</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>-36.52324965869459,174.72025568357668</t>
+        </is>
+      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>-36.51861922977189,174.72214151738967</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>-36.5191845398519,174.72139943804592</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>-36.519818446748786,174.72094510587306</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>-36.52049742397792,174.7206758860546</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>-36.52119191740035,174.72051914726387</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>-36.521869631172905,174.72032714893103</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>-36.52256455896553,174.72015848732326</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>-36.523254485378196,174.72015919990892</t>
+        </is>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>-36.52383784403542,174.72100504566933</t>
+        </is>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>-36.51858423006226,174.72200744391807</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>-36.519167289268125,174.7213333570871</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>-36.51982691203728,174.72097996297677</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>-36.52050559742033,174.72071401193247</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>-36.521186100069166,174.72048486719817</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>-36.52186876737696,174.72031839282027</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>-36.5225625670529,174.72011556809315</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>-36.523257472148394,174.72009949466138</t>
+        </is>
+      </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>-36.52383914902766,174.72099523994208</t>
+        </is>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>-36.518546845099124,174.72186423402988</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>-36.5192286090992,174.72156825271261</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>-36.51985807251875,174.7211082713962</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>-36.52051031044698,174.72073599636852</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>-36.521196627418014,174.7205469022568</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>-36.52187171229888,174.72034824487795</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>-36.52256583861031,174.72018605967796</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>-36.523253269953315,174.72018349596266</t>
+        </is>
+      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>-36.518503894699315,174.7216997057204</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>-36.51919452409548,174.72143768427281</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>-36.51982399506278,174.72096795188807</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>-36.520510436039515,174.7207365822091</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>-36.52119817446401,174.72055601863312</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>-36.52187616732944,174.7203934047396</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>-36.52256383865952,174.72014296703583</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>-36.523257376572204,174.72010140522937</t>
+        </is>
+      </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>-36.523865854760956,174.7207945713468</t>
+        </is>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>-36.51850424599497,174.7217010514097</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>-36.519169563462974,174.72134206872315</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>-36.51983646793325,174.72101931088164</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>-36.52048636849321,174.7206243166928</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>-36.52117884693456,174.72044212639426</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>-36.52186192988061,174.72024908285232</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>-36.52256171164669,174.72009713697838</t>
+        </is>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>-36.52325818100417,174.7200853246151</t>
+        </is>
+      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0130/nzd0130.xlsx
+++ b/data/nzd0130/nzd0130.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K616"/>
+  <dimension ref="A1:K619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21957,6 +21957,119 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:03+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>410.3</v>
+      </c>
+      <c r="C617" t="n">
+        <v>392.56</v>
+      </c>
+      <c r="D617" t="n">
+        <v>373.4</v>
+      </c>
+      <c r="E617" t="n">
+        <v>366.0014285714286</v>
+      </c>
+      <c r="F617" t="n">
+        <v>364.8214285714286</v>
+      </c>
+      <c r="G617" t="n">
+        <v>360.1733333333333</v>
+      </c>
+      <c r="H617" t="n">
+        <v>366.5433333333333</v>
+      </c>
+      <c r="I617" t="n">
+        <v>369.2314285714286</v>
+      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>449.87</v>
+      </c>
+      <c r="C618" t="inlineStr"/>
+      <c r="D618" t="n">
+        <v>405.43</v>
+      </c>
+      <c r="E618" t="n">
+        <v>397.3357142857143</v>
+      </c>
+      <c r="F618" t="n">
+        <v>393.3157142857143</v>
+      </c>
+      <c r="G618" t="n">
+        <v>394.1933333333333</v>
+      </c>
+      <c r="H618" t="n">
+        <v>380.8833333333333</v>
+      </c>
+      <c r="I618" t="n">
+        <v>380.4957142857143</v>
+      </c>
+      <c r="J618" t="n">
+        <v>465.55</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>450.5066666666667</v>
+      </c>
+      <c r="C619" t="n">
+        <v>426.61</v>
+      </c>
+      <c r="D619" t="n">
+        <v>406.7433333333333</v>
+      </c>
+      <c r="E619" t="n">
+        <v>401.9271428571428</v>
+      </c>
+      <c r="F619" t="n">
+        <v>400.0071428571428</v>
+      </c>
+      <c r="G619" t="n">
+        <v>398.1622222222222</v>
+      </c>
+      <c r="H619" t="n">
+        <v>391.2722222222222</v>
+      </c>
+      <c r="I619" t="n">
+        <v>380.9371428571428</v>
+      </c>
+      <c r="J619" t="n">
+        <v>458.1933333333333</v>
+      </c>
+      <c r="K619" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -21973,7 +22086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B624"/>
+  <dimension ref="A1:B627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28221,6 +28334,36 @@
       </c>
       <c r="B624" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>-0.53</v>
       </c>
     </row>
   </sheetData>
@@ -28394,28 +28537,28 @@
         <v>0.0165</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1890945798208416</v>
+        <v>-0.1878542035387804</v>
       </c>
       <c r="J2" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K2" t="n">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004079751152190614</v>
+        <v>0.004057959993997051</v>
       </c>
       <c r="M2" t="n">
-        <v>18.28068757159211</v>
+        <v>18.27855553948518</v>
       </c>
       <c r="N2" t="n">
-        <v>503.4111317234636</v>
+        <v>502.4461917339005</v>
       </c>
       <c r="O2" t="n">
-        <v>22.43682534859742</v>
+        <v>22.41531154666159</v>
       </c>
       <c r="P2" t="n">
-        <v>440.7269117926148</v>
+        <v>440.7146528063481</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28472,28 +28615,28 @@
         <v>0.0203</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1393287004244134</v>
+        <v>-0.1435451249351785</v>
       </c>
       <c r="J3" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K3" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005128914737184131</v>
+        <v>0.005453392256017375</v>
       </c>
       <c r="M3" t="n">
-        <v>11.54812665350476</v>
+        <v>11.57172937403711</v>
       </c>
       <c r="N3" t="n">
-        <v>209.3515955270657</v>
+        <v>209.8092885638542</v>
       </c>
       <c r="O3" t="n">
-        <v>14.46898737047848</v>
+        <v>14.48479508187306</v>
       </c>
       <c r="P3" t="n">
-        <v>418.5393505168983</v>
+        <v>418.5807212360526</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28550,28 +28693,28 @@
         <v>0.0305</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1391934026604664</v>
+        <v>-0.1431773709414899</v>
       </c>
       <c r="J4" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K4" t="n">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01017348119167572</v>
+        <v>0.0107313509682252</v>
       </c>
       <c r="M4" t="n">
-        <v>7.854570137294143</v>
+        <v>7.889075286527281</v>
       </c>
       <c r="N4" t="n">
-        <v>104.4331525684775</v>
+        <v>105.3159216341374</v>
       </c>
       <c r="O4" t="n">
-        <v>10.21925401232778</v>
+        <v>10.26235458528584</v>
       </c>
       <c r="P4" t="n">
-        <v>402.3056926327564</v>
+        <v>402.3450362747744</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28628,28 +28771,28 @@
         <v>0.036</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06173256572965639</v>
+        <v>-0.06564286509765295</v>
       </c>
       <c r="J5" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K5" t="n">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001544874592073309</v>
+        <v>0.001746525212295014</v>
       </c>
       <c r="M5" t="n">
-        <v>8.680440242112887</v>
+        <v>8.713176829376435</v>
       </c>
       <c r="N5" t="n">
-        <v>136.6690343123088</v>
+        <v>137.4453315697949</v>
       </c>
       <c r="O5" t="n">
-        <v>11.69055320813813</v>
+        <v>11.72370809811447</v>
       </c>
       <c r="P5" t="n">
-        <v>393.5689992665518</v>
+        <v>393.6076292748913</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28706,28 +28849,28 @@
         <v>0.0365</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01514535370937442</v>
+        <v>-0.02575771370028099</v>
       </c>
       <c r="J6" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K6" t="n">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001378824130929823</v>
+        <v>0.0003952443724479782</v>
       </c>
       <c r="M6" t="n">
-        <v>7.571564596643094</v>
+        <v>7.606725988604638</v>
       </c>
       <c r="N6" t="n">
-        <v>93.83179524985754</v>
+        <v>95.20655436508029</v>
       </c>
       <c r="O6" t="n">
-        <v>9.686681333142818</v>
+        <v>9.757384606803214</v>
       </c>
       <c r="P6" t="n">
-        <v>395.9952456495186</v>
+        <v>396.098939783824</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28784,28 +28927,28 @@
         <v>0.0461</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05915324345779718</v>
+        <v>0.04784790143844102</v>
       </c>
       <c r="J7" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K7" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002262067726431782</v>
+        <v>0.001458353062547268</v>
       </c>
       <c r="M7" t="n">
-        <v>7.228109658878754</v>
+        <v>7.266295800652134</v>
       </c>
       <c r="N7" t="n">
-        <v>87.08816592615273</v>
+        <v>88.94528860459856</v>
       </c>
       <c r="O7" t="n">
-        <v>9.332104046041961</v>
+        <v>9.431080988126364</v>
       </c>
       <c r="P7" t="n">
-        <v>392.9183200907856</v>
+        <v>393.0295693183432</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28862,28 +29005,28 @@
         <v>0.0512</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.03208749788103213</v>
+        <v>-0.04040597704992327</v>
       </c>
       <c r="J8" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K8" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006638753138881182</v>
+        <v>0.001052795902580894</v>
       </c>
       <c r="M8" t="n">
-        <v>7.327165022665235</v>
+        <v>7.346642189613938</v>
       </c>
       <c r="N8" t="n">
-        <v>86.72623074396499</v>
+        <v>87.16112643462162</v>
       </c>
       <c r="O8" t="n">
-        <v>9.312691917161493</v>
+        <v>9.336012341177662</v>
       </c>
       <c r="P8" t="n">
-        <v>387.9381036935885</v>
+        <v>388.0205919261276</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28940,28 +29083,28 @@
         <v>0.0397</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1216965002007872</v>
+        <v>-0.1358897294106515</v>
       </c>
       <c r="J9" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K9" t="n">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00783678852967673</v>
+        <v>0.009763563127485719</v>
       </c>
       <c r="M9" t="n">
-        <v>7.997819163353624</v>
+        <v>8.027706486663385</v>
       </c>
       <c r="N9" t="n">
-        <v>104.5339684784114</v>
+        <v>105.011556465574</v>
       </c>
       <c r="O9" t="n">
-        <v>10.22418546772365</v>
+        <v>10.24751464822442</v>
       </c>
       <c r="P9" t="n">
-        <v>392.4654913486985</v>
+        <v>392.6065968433916</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29018,28 +29161,28 @@
         <v>0.031</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2663420570727599</v>
+        <v>0.3028092096120785</v>
       </c>
       <c r="J10" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K10" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006262795466724924</v>
+        <v>0.008069071860605348</v>
       </c>
       <c r="M10" t="n">
-        <v>21.51133983101913</v>
+        <v>21.62869613267272</v>
       </c>
       <c r="N10" t="n">
-        <v>611.313030652634</v>
+        <v>615.2805739784815</v>
       </c>
       <c r="O10" t="n">
-        <v>24.72474531016718</v>
+        <v>24.8048498076179</v>
       </c>
       <c r="P10" t="n">
-        <v>417.7849281436945</v>
+        <v>417.4169421977104</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29077,7 +29220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K616"/>
+  <dimension ref="A1:K619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59165,6 +59308,169 @@
         </is>
       </c>
     </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:03+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>-36.51850075152706,174.72168766534298</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>-36.51913572781374,174.7212124566273</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>-36.51976446081461,174.72072281181406</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>-36.52043665653964,174.72039243202957</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>-36.52112917393584,174.7201494192103</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>-36.5218312335409,174.71993792703933</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>-36.522553928353574,174.71992943614293</t>
+        </is>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>-36.523266781919155,174.71991338938722</t>
+        </is>
+      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>-36.51861049372568,174.7221080521304</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr"/>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>-36.51984763377316,174.72106528806478</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>-36.52050915036859,174.720730585052</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>-36.52118201256681,174.72046078061567</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>-36.521868432063584,174.7203149938237</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>-36.52256134775327,174.72008929632275</t>
+        </is>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>-36.52326050189767,174.72003892965233</t>
+        </is>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>-36.523824192888995,174.7211076201654</t>
+        </is>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>-36.51861225942469,174.72211481600766</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>-36.51923016219598,174.7215742021315</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>-36.51985104411135,174.72107933071084</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>-36.520519772843585,174.72078013483363</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>-36.52119442075701,174.72053389893296</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>-36.52187277169141,174.72035898373747</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>-36.5225667227457,174.72020511011928</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>-36.52326025579142,174.72004384936542</t>
+        </is>
+      </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>-36.523834979892364,174.72102656685226</t>
+        </is>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0130/nzd0130.xlsx
+++ b/data/nzd0130/nzd0130.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -39476,7 +39476,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>-36.52326484814851,174.7199520465572</t>
+          <t>-36.5232648481485,174.7199520465572</t>
         </is>
       </c>
       <c r="J214" t="inlineStr"/>
@@ -46003,7 +46003,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>-36.52185426498434,174.72017138624307</t>
+          <t>-36.52185426498435,174.72017138624307</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">

--- a/data/nzd0130/nzd0130.xlsx
+++ b/data/nzd0130/nzd0130.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K619"/>
+  <dimension ref="A1:K621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22070,6 +22070,82 @@
         <v>458.1933333333333</v>
       </c>
       <c r="K619" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>440.5133333333333</v>
+      </c>
+      <c r="C620" t="n">
+        <v>412.33</v>
+      </c>
+      <c r="D620" t="n">
+        <v>395.9766666666667</v>
+      </c>
+      <c r="E620" t="n">
+        <v>390.4971428571428</v>
+      </c>
+      <c r="F620" t="n">
+        <v>388.3971428571429</v>
+      </c>
+      <c r="G620" t="n">
+        <v>391.8044444444445</v>
+      </c>
+      <c r="H620" t="n">
+        <v>392.4144444444445</v>
+      </c>
+      <c r="I620" t="n">
+        <v>374.1471428571429</v>
+      </c>
+      <c r="J620" t="n">
+        <v>446.9866666666667</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="C621" t="n">
+        <v>417.66</v>
+      </c>
+      <c r="D621" t="n">
+        <v>394.34</v>
+      </c>
+      <c r="E621" t="n">
+        <v>388.1757142857143</v>
+      </c>
+      <c r="F621" t="n">
+        <v>395.8857142857143</v>
+      </c>
+      <c r="G621" t="n">
+        <v>392.6533333333333</v>
+      </c>
+      <c r="H621" t="n">
+        <v>386.0133333333333</v>
+      </c>
+      <c r="I621" t="n">
+        <v>386.3057142857143</v>
+      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -22086,7 +22162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B627"/>
+  <dimension ref="A1:B629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28364,6 +28440,26 @@
       </c>
       <c r="B627" t="n">
         <v>-0.53</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -28537,28 +28633,28 @@
         <v>0.0165</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1878542035387804</v>
+        <v>-0.1866900930926562</v>
       </c>
       <c r="J2" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K2" t="n">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004057959993997051</v>
+        <v>0.004040567526633621</v>
       </c>
       <c r="M2" t="n">
-        <v>18.27855553948518</v>
+        <v>18.21255225398914</v>
       </c>
       <c r="N2" t="n">
-        <v>502.4461917339005</v>
+        <v>500.3325611926801</v>
       </c>
       <c r="O2" t="n">
-        <v>22.41531154666159</v>
+        <v>22.3681148332326</v>
       </c>
       <c r="P2" t="n">
-        <v>440.7146528063481</v>
+        <v>440.7033223090041</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28615,28 +28711,28 @@
         <v>0.0203</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1435451249351785</v>
+        <v>-0.1434507164190267</v>
       </c>
       <c r="J3" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K3" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005453392256017375</v>
+        <v>0.005491313979411161</v>
       </c>
       <c r="M3" t="n">
-        <v>11.57172937403711</v>
+        <v>11.53453429685771</v>
       </c>
       <c r="N3" t="n">
-        <v>209.8092885638542</v>
+        <v>208.963007900355</v>
       </c>
       <c r="O3" t="n">
-        <v>14.48479508187306</v>
+        <v>14.45555283966528</v>
       </c>
       <c r="P3" t="n">
-        <v>418.5807212360526</v>
+        <v>418.5797730809375</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28693,28 +28789,28 @@
         <v>0.0305</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1431773709414899</v>
+        <v>-0.1458149027008921</v>
       </c>
       <c r="J4" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K4" t="n">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0107313509682252</v>
+        <v>0.01120868574583889</v>
       </c>
       <c r="M4" t="n">
-        <v>7.889075286527281</v>
+        <v>7.872007468945899</v>
       </c>
       <c r="N4" t="n">
-        <v>105.3159216341374</v>
+        <v>104.9433350681234</v>
       </c>
       <c r="O4" t="n">
-        <v>10.26235458528584</v>
+        <v>10.24418542726182</v>
       </c>
       <c r="P4" t="n">
-        <v>402.3450362747744</v>
+        <v>402.3713279085593</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28771,28 +28867,28 @@
         <v>0.036</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06564286509765295</v>
+        <v>-0.06754309667573932</v>
       </c>
       <c r="J5" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K5" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001746525212295014</v>
+        <v>0.001862881950100315</v>
       </c>
       <c r="M5" t="n">
-        <v>8.713176829376435</v>
+        <v>8.690152225666605</v>
       </c>
       <c r="N5" t="n">
-        <v>137.4453315697949</v>
+        <v>136.9343626618239</v>
       </c>
       <c r="O5" t="n">
-        <v>11.72370809811447</v>
+        <v>11.70189568667504</v>
       </c>
       <c r="P5" t="n">
-        <v>393.6076292748913</v>
+        <v>393.6265904875329</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28849,28 +28945,28 @@
         <v>0.0365</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02575771370028099</v>
+        <v>-0.0281925850294741</v>
       </c>
       <c r="J6" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K6" t="n">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003952443724479782</v>
+        <v>0.0004767130944245412</v>
       </c>
       <c r="M6" t="n">
-        <v>7.606725988604638</v>
+        <v>7.59265187088652</v>
       </c>
       <c r="N6" t="n">
-        <v>95.20655436508029</v>
+        <v>94.9252473044772</v>
       </c>
       <c r="O6" t="n">
-        <v>9.757384606803214</v>
+        <v>9.742958857784283</v>
       </c>
       <c r="P6" t="n">
-        <v>396.098939783824</v>
+        <v>396.1228718088383</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28927,28 +29023,28 @@
         <v>0.0461</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04784790143844102</v>
+        <v>0.04635323438677554</v>
       </c>
       <c r="J7" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K7" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001458353062547268</v>
+        <v>0.001379108247348881</v>
       </c>
       <c r="M7" t="n">
-        <v>7.266295800652134</v>
+        <v>7.245855573523254</v>
       </c>
       <c r="N7" t="n">
-        <v>88.94528860459856</v>
+        <v>88.60523376532127</v>
       </c>
       <c r="O7" t="n">
-        <v>9.431080988126364</v>
+        <v>9.413035310956889</v>
       </c>
       <c r="P7" t="n">
-        <v>393.0295693183432</v>
+        <v>393.0443747221781</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29005,28 +29101,28 @@
         <v>0.0512</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.04040597704992327</v>
+        <v>-0.03876544411901733</v>
       </c>
       <c r="J8" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K8" t="n">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001052795902580894</v>
+        <v>0.0009758980673491013</v>
       </c>
       <c r="M8" t="n">
-        <v>7.346642189613938</v>
+        <v>7.329727547173527</v>
       </c>
       <c r="N8" t="n">
-        <v>87.16112643462162</v>
+        <v>86.87262346181699</v>
       </c>
       <c r="O8" t="n">
-        <v>9.336012341177662</v>
+        <v>9.32054845284423</v>
       </c>
       <c r="P8" t="n">
-        <v>388.0205919261276</v>
+        <v>388.0042308923153</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29083,28 +29179,28 @@
         <v>0.0397</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1358897294106515</v>
+        <v>-0.142613806259545</v>
       </c>
       <c r="J9" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K9" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009763563127485719</v>
+        <v>0.01077947223943931</v>
       </c>
       <c r="M9" t="n">
-        <v>8.027706486663385</v>
+        <v>8.032726750519791</v>
       </c>
       <c r="N9" t="n">
-        <v>105.011556465574</v>
+        <v>105.0518655845807</v>
       </c>
       <c r="O9" t="n">
-        <v>10.24751464822442</v>
+        <v>10.24948123490065</v>
       </c>
       <c r="P9" t="n">
-        <v>392.6065968433916</v>
+        <v>392.6737686758605</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29161,28 +29257,28 @@
         <v>0.031</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3028092096120785</v>
+        <v>0.3134534535238425</v>
       </c>
       <c r="J10" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K10" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008069071860605348</v>
+        <v>0.008668218695880525</v>
       </c>
       <c r="M10" t="n">
-        <v>21.62869613267272</v>
+        <v>21.63926504255994</v>
       </c>
       <c r="N10" t="n">
-        <v>615.2805739784815</v>
+        <v>614.9061915439621</v>
       </c>
       <c r="O10" t="n">
-        <v>24.8048498076179</v>
+        <v>24.79730210212317</v>
       </c>
       <c r="P10" t="n">
-        <v>417.4169421977104</v>
+        <v>417.3091661269827</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29220,7 +29316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K619"/>
+  <dimension ref="A1:K621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59471,6 +59567,116 @@
         </is>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>-36.518584544376246,174.72200864795826</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>-36.51919055813356,174.72142249202045</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>-36.519823086212895,174.7209642095609</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>-36.520493328989375,174.72065678457636</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>-36.52117289182923,174.72040703460758</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>-36.52186582001767,174.72028851613413</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>-36.522567313700534,174.72021784344435</t>
+        </is>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>-36.52326404134512,174.71996817493917</t>
+        </is>
+      </c>
+      <c r="J620" t="inlineStr">
+        <is>
+          <t>-36.52385141200563,174.72090309546863</t>
+        </is>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>-36.5185671184207,174.72194189456866</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>-36.519205340345216,174.72147911769588</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>-36.51981883625617,174.72094670972737</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>-36.52048795823695,174.7206317321966</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>-36.521186778228504,174.72048886341685</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>-36.52186674820583,174.72029792495016</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>-36.52256400192138,174.72014648480246</t>
+        </is>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>-36.52325726267722,174.7201036819896</t>
+        </is>
+      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0130/nzd0130.xlsx
+++ b/data/nzd0130/nzd0130.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K621"/>
+  <dimension ref="A1:K623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22144,10 +22144,78 @@
       <c r="I621" t="n">
         <v>386.3057142857143</v>
       </c>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>406.02</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>422.5533333333333</v>
+      </c>
+      <c r="C622" t="n">
+        <v>430.73</v>
+      </c>
+      <c r="D622" t="n">
+        <v>408.0966666666667</v>
+      </c>
+      <c r="E622" t="n">
+        <v>403.0414285714286</v>
+      </c>
+      <c r="F622" t="n">
+        <v>401.4314285714286</v>
+      </c>
+      <c r="G622" t="n">
+        <v>389.6011111111111</v>
+      </c>
+      <c r="H622" t="n">
+        <v>384.7811111111111</v>
+      </c>
+      <c r="I622" t="n">
+        <v>406.3414285714285</v>
+      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr"/>
+      <c r="C623" t="inlineStr"/>
+      <c r="D623" t="inlineStr"/>
+      <c r="E623" t="inlineStr"/>
+      <c r="F623" t="n">
+        <v>427.5371428571429</v>
+      </c>
+      <c r="G623" t="n">
+        <v>387.4388888888889</v>
+      </c>
+      <c r="H623" t="n">
+        <v>367.9888888888889</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>367.1533333333333</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -22162,7 +22230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B629"/>
+  <dimension ref="A1:B631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28460,6 +28528,26 @@
       </c>
       <c r="B629" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -28633,28 +28721,28 @@
         <v>0.0165</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1866900930926562</v>
+        <v>-0.1918791247056032</v>
       </c>
       <c r="J2" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K2" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004040567526633621</v>
+        <v>0.004281713927834274</v>
       </c>
       <c r="M2" t="n">
-        <v>18.21255225398914</v>
+        <v>18.20514247250895</v>
       </c>
       <c r="N2" t="n">
-        <v>500.3325611926801</v>
+        <v>499.6355237836158</v>
       </c>
       <c r="O2" t="n">
-        <v>22.3681148332326</v>
+        <v>22.35252835326724</v>
       </c>
       <c r="P2" t="n">
-        <v>440.7033223090041</v>
+        <v>440.7541703923036</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28711,28 +28799,28 @@
         <v>0.0203</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1434507164190267</v>
+        <v>-0.1371745280622672</v>
       </c>
       <c r="J3" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K3" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005491313979411161</v>
+        <v>0.005032402796301905</v>
       </c>
       <c r="M3" t="n">
-        <v>11.53453429685771</v>
+        <v>11.54243776367892</v>
       </c>
       <c r="N3" t="n">
-        <v>208.963007900355</v>
+        <v>209.0486963027349</v>
       </c>
       <c r="O3" t="n">
-        <v>14.45555283966528</v>
+        <v>14.45851639355625</v>
       </c>
       <c r="P3" t="n">
-        <v>418.5797730809375</v>
+        <v>418.5172911009743</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28789,28 +28877,28 @@
         <v>0.0305</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1458149027008921</v>
+        <v>-0.142217438529301</v>
       </c>
       <c r="J4" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K4" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01120868574583889</v>
+        <v>0.01069257270211377</v>
       </c>
       <c r="M4" t="n">
-        <v>7.872007468945899</v>
+        <v>7.874320332628765</v>
       </c>
       <c r="N4" t="n">
-        <v>104.9433350681234</v>
+        <v>104.9127697521216</v>
       </c>
       <c r="O4" t="n">
-        <v>10.24418542726182</v>
+        <v>10.2426934813125</v>
       </c>
       <c r="P4" t="n">
-        <v>402.3713279085593</v>
+        <v>402.3352917075094</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28867,28 +28955,28 @@
         <v>0.036</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06754309667573932</v>
+        <v>-0.06341623686683323</v>
       </c>
       <c r="J5" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K5" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001862881950100315</v>
+        <v>0.001646050762683537</v>
       </c>
       <c r="M5" t="n">
-        <v>8.690152225666605</v>
+        <v>8.692437685501877</v>
       </c>
       <c r="N5" t="n">
-        <v>136.9343626618239</v>
+        <v>136.9086970461581</v>
       </c>
       <c r="O5" t="n">
-        <v>11.70189568667504</v>
+        <v>11.70079899178505</v>
       </c>
       <c r="P5" t="n">
-        <v>393.6265904875329</v>
+        <v>393.5852137587984</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28945,28 +29033,28 @@
         <v>0.0365</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0281925850294741</v>
+        <v>-0.01406877815197566</v>
       </c>
       <c r="J6" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K6" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004767130944245412</v>
+        <v>0.0001170883039603998</v>
       </c>
       <c r="M6" t="n">
-        <v>7.59265187088652</v>
+        <v>7.630199568051629</v>
       </c>
       <c r="N6" t="n">
-        <v>94.9252473044772</v>
+        <v>96.65739011531791</v>
       </c>
       <c r="O6" t="n">
-        <v>9.742958857784283</v>
+        <v>9.831449034365072</v>
       </c>
       <c r="P6" t="n">
-        <v>396.1228718088383</v>
+        <v>395.9831051426962</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29023,28 +29111,28 @@
         <v>0.0461</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04635323438677554</v>
+        <v>0.04215091561606474</v>
       </c>
       <c r="J7" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K7" t="n">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001379108247348881</v>
+        <v>0.001147788533193306</v>
       </c>
       <c r="M7" t="n">
-        <v>7.245855573523254</v>
+        <v>7.241232861771694</v>
       </c>
       <c r="N7" t="n">
-        <v>88.60523376532127</v>
+        <v>88.3850634671624</v>
       </c>
       <c r="O7" t="n">
-        <v>9.413035310956889</v>
+        <v>9.401333068621833</v>
       </c>
       <c r="P7" t="n">
-        <v>393.0443747221781</v>
+        <v>393.0862527828917</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29101,28 +29189,28 @@
         <v>0.0512</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.03876544411901733</v>
+        <v>-0.04656700987933327</v>
       </c>
       <c r="J8" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K8" t="n">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0009758980673491013</v>
+        <v>0.001406718460123524</v>
       </c>
       <c r="M8" t="n">
-        <v>7.329727547173527</v>
+        <v>7.343784878720686</v>
       </c>
       <c r="N8" t="n">
-        <v>86.87262346181699</v>
+        <v>87.25178996129388</v>
       </c>
       <c r="O8" t="n">
-        <v>9.32054845284423</v>
+        <v>9.340866660074635</v>
       </c>
       <c r="P8" t="n">
-        <v>388.0042308923153</v>
+        <v>388.0825942007601</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29179,28 +29267,28 @@
         <v>0.0397</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.142613806259545</v>
+        <v>-0.1360089079412572</v>
       </c>
       <c r="J9" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K9" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01077947223943931</v>
+        <v>0.00979565639259139</v>
       </c>
       <c r="M9" t="n">
-        <v>8.032726750519791</v>
+        <v>8.0501546294146</v>
       </c>
       <c r="N9" t="n">
-        <v>105.0518655845807</v>
+        <v>105.4512651925789</v>
       </c>
       <c r="O9" t="n">
-        <v>10.24948123490065</v>
+        <v>10.26894664474302</v>
       </c>
       <c r="P9" t="n">
-        <v>392.6737686758605</v>
+        <v>392.6074160662775</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29257,28 +29345,28 @@
         <v>0.031</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3134534535238425</v>
+        <v>0.2756659962661158</v>
       </c>
       <c r="J10" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K10" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008668218695880525</v>
+        <v>0.006682260227473757</v>
       </c>
       <c r="M10" t="n">
-        <v>21.63926504255994</v>
+        <v>21.68918957023469</v>
       </c>
       <c r="N10" t="n">
-        <v>614.9061915439621</v>
+        <v>621.3061426814342</v>
       </c>
       <c r="O10" t="n">
-        <v>24.79730210212317</v>
+        <v>24.92601337320981</v>
       </c>
       <c r="P10" t="n">
-        <v>417.3091661269827</v>
+        <v>417.6938106316982</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29316,7 +29404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K621"/>
+  <dimension ref="A1:K623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59670,10 +59758,104 @@
           <t>-36.52325726267722,174.7201036819896</t>
         </is>
       </c>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>-36.52391147954033,174.72045173766267</t>
+        </is>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>-36.518534734699955,174.72181784312005</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>-36.519241588541426,174.7216179728633</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>-36.51985455831594,174.7210938010529</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>-36.52052235079017,174.72079215998482</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>-36.52119706186251,174.72054946233504</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>-36.521863410855644,174.72026409508504</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>-36.52256336439468,174.7201327481715</t>
+        </is>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>-36.523246091996235,174.72032697958417</t>
+        </is>
+      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr"/>
+      <c r="C623" t="inlineStr"/>
+      <c r="D623" t="inlineStr"/>
+      <c r="E623" t="inlineStr"/>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>-36.521245470285606,174.72083472390275</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>-36.5218610466403,174.7202401296998</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>-36.52255467628205,174.71994555097956</t>
+        </is>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr">
+        <is>
+          <t>-36.52396846637853,174.72002351628626</t>
+        </is>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0130/nzd0130.xlsx
+++ b/data/nzd0130/nzd0130.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K623"/>
+  <dimension ref="A1:K625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22144,9 +22144,7 @@
       <c r="I621" t="n">
         <v>386.3057142857143</v>
       </c>
-      <c r="J621" t="n">
-        <v>406.02</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>L8</t>
@@ -22209,13 +22207,89 @@
       <c r="H623" t="n">
         <v>367.9888888888889</v>
       </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>367.1533333333333</v>
-      </c>
+      <c r="I623" t="n">
+        <v>365.1771428571428</v>
+      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>406.32</v>
+      </c>
+      <c r="C624" t="n">
+        <v>418.58</v>
+      </c>
+      <c r="D624" t="n">
+        <v>403.9</v>
+      </c>
+      <c r="E624" t="n">
+        <v>392.4185714285715</v>
+      </c>
+      <c r="F624" t="n">
+        <v>399.5485714285714</v>
+      </c>
+      <c r="G624" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="H624" t="n">
+        <v>383.66</v>
+      </c>
+      <c r="I624" t="n">
+        <v>383.1085714285715</v>
+      </c>
+      <c r="J624" t="n">
+        <v>441.03</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>409.15</v>
+      </c>
+      <c r="C625" t="n">
+        <v>407.83</v>
+      </c>
+      <c r="D625" t="n">
+        <v>392.29</v>
+      </c>
+      <c r="E625" t="n">
+        <v>385.5514285714286</v>
+      </c>
+      <c r="F625" t="n">
+        <v>385.5414285714286</v>
+      </c>
+      <c r="G625" t="n">
+        <v>384.72</v>
+      </c>
+      <c r="H625" t="n">
+        <v>374.52</v>
+      </c>
+      <c r="I625" t="n">
+        <v>384.6814285714286</v>
+      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -22230,7 +22304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B631"/>
+  <dimension ref="A1:B633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28548,6 +28622,26 @@
       </c>
       <c r="B631" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -28721,28 +28815,28 @@
         <v>0.0165</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1918791247056032</v>
+        <v>-0.2135656665795722</v>
       </c>
       <c r="J2" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K2" t="n">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004281713927834274</v>
+        <v>0.005307142009220112</v>
       </c>
       <c r="M2" t="n">
-        <v>18.20514247250895</v>
+        <v>18.25920229270019</v>
       </c>
       <c r="N2" t="n">
-        <v>499.6355237836158</v>
+        <v>500.8298437675988</v>
       </c>
       <c r="O2" t="n">
-        <v>22.35252835326724</v>
+        <v>22.37922795289415</v>
       </c>
       <c r="P2" t="n">
-        <v>440.7541703923036</v>
+        <v>440.9672596259683</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28799,28 +28893,28 @@
         <v>0.0203</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1371745280622672</v>
+        <v>-0.1385555260023077</v>
       </c>
       <c r="J3" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K3" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005032402796301905</v>
+        <v>0.005173802202475986</v>
       </c>
       <c r="M3" t="n">
-        <v>11.54243776367892</v>
+        <v>11.51708451147293</v>
       </c>
       <c r="N3" t="n">
-        <v>209.0486963027349</v>
+        <v>208.3136825330413</v>
       </c>
       <c r="O3" t="n">
-        <v>14.45851639355625</v>
+        <v>14.43307598999747</v>
       </c>
       <c r="P3" t="n">
-        <v>418.5172911009743</v>
+        <v>418.5310976406448</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28877,28 +28971,28 @@
         <v>0.0305</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.142217438529301</v>
+        <v>-0.1426359818381273</v>
       </c>
       <c r="J4" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K4" t="n">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01069257270211377</v>
+        <v>0.01082665917853654</v>
       </c>
       <c r="M4" t="n">
-        <v>7.874320332628765</v>
+        <v>7.866147782048871</v>
       </c>
       <c r="N4" t="n">
-        <v>104.9127697521216</v>
+        <v>104.6290364733129</v>
       </c>
       <c r="O4" t="n">
-        <v>10.2426934813125</v>
+        <v>10.22883358322506</v>
       </c>
       <c r="P4" t="n">
-        <v>402.3352917075094</v>
+        <v>402.3395191970688</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28955,28 +29049,28 @@
         <v>0.036</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06341623686683323</v>
+        <v>-0.06558872405762364</v>
       </c>
       <c r="J5" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K5" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001646050762683537</v>
+        <v>0.001773298009375313</v>
       </c>
       <c r="M5" t="n">
-        <v>8.692437685501877</v>
+        <v>8.673124796856229</v>
       </c>
       <c r="N5" t="n">
-        <v>136.9086970461581</v>
+        <v>136.4518563571216</v>
       </c>
       <c r="O5" t="n">
-        <v>11.70079899178505</v>
+        <v>11.68126090613173</v>
       </c>
       <c r="P5" t="n">
-        <v>393.5852137587984</v>
+        <v>393.6070663383883</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29033,28 +29127,28 @@
         <v>0.0365</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01406877815197566</v>
+        <v>-0.01632787965161796</v>
       </c>
       <c r="J6" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K6" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001170883039603998</v>
+        <v>0.0001585672655284309</v>
       </c>
       <c r="M6" t="n">
-        <v>7.630199568051629</v>
+        <v>7.628938981198</v>
       </c>
       <c r="N6" t="n">
-        <v>96.65739011531791</v>
+        <v>96.50579830259343</v>
       </c>
       <c r="O6" t="n">
-        <v>9.831449034365072</v>
+        <v>9.823736473592593</v>
       </c>
       <c r="P6" t="n">
-        <v>395.9831051426962</v>
+        <v>396.0055275797079</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29111,28 +29205,28 @@
         <v>0.0461</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04215091561606474</v>
+        <v>0.03809207673914135</v>
       </c>
       <c r="J7" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K7" t="n">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001147788533193306</v>
+        <v>0.0009428653071111848</v>
       </c>
       <c r="M7" t="n">
-        <v>7.241232861771694</v>
+        <v>7.236055186707199</v>
       </c>
       <c r="N7" t="n">
-        <v>88.3850634671624</v>
+        <v>88.2153924351139</v>
       </c>
       <c r="O7" t="n">
-        <v>9.401333068621833</v>
+        <v>9.392304958587848</v>
       </c>
       <c r="P7" t="n">
-        <v>393.0862527828917</v>
+        <v>393.1267991107362</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29189,28 +29283,28 @@
         <v>0.0512</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.04656700987933327</v>
+        <v>-0.05224304709622278</v>
       </c>
       <c r="J8" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K8" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001406718460123524</v>
+        <v>0.001776927710577469</v>
       </c>
       <c r="M8" t="n">
-        <v>7.343784878720686</v>
+        <v>7.346306453536361</v>
       </c>
       <c r="N8" t="n">
-        <v>87.25178996129388</v>
+        <v>87.22604225130411</v>
       </c>
       <c r="O8" t="n">
-        <v>9.340866660074635</v>
+        <v>9.339488329202201</v>
       </c>
       <c r="P8" t="n">
-        <v>388.0825942007601</v>
+        <v>388.1397220369746</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29267,28 +29361,28 @@
         <v>0.0397</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1360089079412572</v>
+        <v>-0.1488530931845401</v>
       </c>
       <c r="J9" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K9" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00979565639259139</v>
+        <v>0.0117091515905634</v>
       </c>
       <c r="M9" t="n">
-        <v>8.0501546294146</v>
+        <v>8.073329121442699</v>
       </c>
       <c r="N9" t="n">
-        <v>105.4512651925789</v>
+        <v>106.0699091427471</v>
       </c>
       <c r="O9" t="n">
-        <v>10.26894664474302</v>
+        <v>10.2990246694892</v>
       </c>
       <c r="P9" t="n">
-        <v>392.6074160662775</v>
+        <v>392.7366488090902</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29345,28 +29439,28 @@
         <v>0.031</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2756659962661158</v>
+        <v>0.3211319976875676</v>
       </c>
       <c r="J10" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K10" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006682260227473757</v>
+        <v>0.009132053439063648</v>
       </c>
       <c r="M10" t="n">
-        <v>21.68918957023469</v>
+        <v>21.63063666828884</v>
       </c>
       <c r="N10" t="n">
-        <v>621.3061426814342</v>
+        <v>613.9455824597655</v>
       </c>
       <c r="O10" t="n">
-        <v>24.92601337320981</v>
+        <v>24.77792530579922</v>
       </c>
       <c r="P10" t="n">
-        <v>417.6938106316982</v>
+        <v>417.2308299229987</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29404,7 +29498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K623"/>
+  <dimension ref="A1:K625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59758,11 +59852,7 @@
           <t>-36.52325726267722,174.7201036819896</t>
         </is>
       </c>
-      <c r="J621" t="inlineStr">
-        <is>
-          <t>-36.52391147954033,174.72045173766267</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>L8</t>
@@ -59847,15 +59937,125 @@
           <t>-36.52255467628205,174.71994555097956</t>
         </is>
       </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr">
-        <is>
-          <t>-36.52396846637853,174.72002351628626</t>
-        </is>
-      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>-36.52326904221678,174.71986820443834</t>
+        </is>
+      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>-36.51848971343583,174.72164538237786</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>-36.519207891868646,174.72148889173576</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>-36.519843660813585,174.72104892874006</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>-36.52049777431577,174.72067752024088</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>-36.52119357041068,174.72052888804845</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>-36.52186658054886,174.72029622545196</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>-36.522562784353205,174.7201202501909</t>
+        </is>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>-36.52325904516874,174.72006804989533</t>
+        </is>
+      </c>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>-36.52386014609642,174.72083746684254</t>
+        </is>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>-36.51849756213041,174.72167544790213</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>-36.51917807782089,174.72137468424293</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>-36.51981351298691,174.72092479038648</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>-36.52048188680145,174.72060341144876</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>-36.52116759633309,174.72037582977117</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>-36.52185807374803,174.7202099943996</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>-36.52255805544276,174.72001835882978</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>-36.523258168260696,174.72008557935752</t>
+        </is>
+      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0130/nzd0130.xlsx
+++ b/data/nzd0130/nzd0130.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K625"/>
+  <dimension ref="A1:K626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22286,8 +22286,49 @@
       <c r="I625" t="n">
         <v>384.6814285714286</v>
       </c>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>393.94</v>
+      </c>
       <c r="K625" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>423.8733333333333</v>
+      </c>
+      <c r="C626" t="n">
+        <v>401.91</v>
+      </c>
+      <c r="D626" t="n">
+        <v>393.3966666666667</v>
+      </c>
+      <c r="E626" t="n">
+        <v>374.6714285714286</v>
+      </c>
+      <c r="F626" t="n">
+        <v>393.7614285714286</v>
+      </c>
+      <c r="G626" t="n">
+        <v>384.0611111111111</v>
+      </c>
+      <c r="H626" t="n">
+        <v>380.5111111111111</v>
+      </c>
+      <c r="I626" t="n">
+        <v>383.5214285714285</v>
+      </c>
+      <c r="J626" t="n">
+        <v>397.9266666666667</v>
+      </c>
+      <c r="K626" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -22304,7 +22345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B633"/>
+  <dimension ref="A1:B634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28642,6 +28683,16 @@
       </c>
       <c r="B633" t="n">
         <v>0.09</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -28815,28 +28866,28 @@
         <v>0.0165</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2135656665795722</v>
+        <v>-0.2180240343891535</v>
       </c>
       <c r="J2" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K2" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005307142009220112</v>
+        <v>0.005549360708596796</v>
       </c>
       <c r="M2" t="n">
-        <v>18.25920229270019</v>
+        <v>18.24730081298139</v>
       </c>
       <c r="N2" t="n">
-        <v>500.8298437675988</v>
+        <v>500.0425487490976</v>
       </c>
       <c r="O2" t="n">
-        <v>22.37922795289415</v>
+        <v>22.36163117371131</v>
       </c>
       <c r="P2" t="n">
-        <v>440.9672596259683</v>
+        <v>441.011195384461</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28893,28 +28944,28 @@
         <v>0.0203</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1385555260023077</v>
+        <v>-0.1436602049144431</v>
       </c>
       <c r="J3" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K3" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005173802202475986</v>
+        <v>0.00557396124375964</v>
       </c>
       <c r="M3" t="n">
-        <v>11.51708451147293</v>
+        <v>11.52092416394179</v>
       </c>
       <c r="N3" t="n">
-        <v>208.3136825330413</v>
+        <v>208.2311026402032</v>
       </c>
       <c r="O3" t="n">
-        <v>14.43307598999747</v>
+        <v>14.43021492009745</v>
       </c>
       <c r="P3" t="n">
-        <v>418.5310976406448</v>
+        <v>418.5821848284535</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28971,28 +29022,28 @@
         <v>0.0305</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1426359818381273</v>
+        <v>-0.1446023178419798</v>
       </c>
       <c r="J4" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K4" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01082665917853654</v>
+        <v>0.01116225668902904</v>
       </c>
       <c r="M4" t="n">
-        <v>7.866147782048871</v>
+        <v>7.86135275922363</v>
       </c>
       <c r="N4" t="n">
-        <v>104.6290364733129</v>
+        <v>104.4745596999795</v>
       </c>
       <c r="O4" t="n">
-        <v>10.22883358322506</v>
+        <v>10.22127974864105</v>
       </c>
       <c r="P4" t="n">
-        <v>402.3395191970688</v>
+        <v>402.3593211173494</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29049,28 +29100,28 @@
         <v>0.036</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06558872405762364</v>
+        <v>-0.0719107094302322</v>
       </c>
       <c r="J5" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K5" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001773298009375313</v>
+        <v>0.002130151296770744</v>
       </c>
       <c r="M5" t="n">
-        <v>8.673124796856229</v>
+        <v>8.693874112623446</v>
       </c>
       <c r="N5" t="n">
-        <v>136.4518563571216</v>
+        <v>136.7624268266491</v>
       </c>
       <c r="O5" t="n">
-        <v>11.68126090613173</v>
+        <v>11.6945468841956</v>
       </c>
       <c r="P5" t="n">
-        <v>393.6070663383883</v>
+        <v>393.670791473165</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29127,28 +29178,28 @@
         <v>0.0365</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01632787965161796</v>
+        <v>-0.01699461437193858</v>
       </c>
       <c r="J6" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K6" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001585672655284309</v>
+        <v>0.0001724427906328874</v>
       </c>
       <c r="M6" t="n">
-        <v>7.628938981198</v>
+        <v>7.617795952907912</v>
       </c>
       <c r="N6" t="n">
-        <v>96.50579830259343</v>
+        <v>96.32158022240954</v>
       </c>
       <c r="O6" t="n">
-        <v>9.823736473592593</v>
+        <v>9.814355823099627</v>
       </c>
       <c r="P6" t="n">
-        <v>396.0055275797079</v>
+        <v>396.0121551909353</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29205,28 +29256,28 @@
         <v>0.0461</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03809207673914135</v>
+        <v>0.03443301583581371</v>
       </c>
       <c r="J7" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K7" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0009428653071111848</v>
+        <v>0.0007717721266358168</v>
       </c>
       <c r="M7" t="n">
-        <v>7.236055186707199</v>
+        <v>7.242874121641368</v>
       </c>
       <c r="N7" t="n">
-        <v>88.2153924351139</v>
+        <v>88.23988583851187</v>
       </c>
       <c r="O7" t="n">
-        <v>9.392304958587848</v>
+        <v>9.393608776104733</v>
       </c>
       <c r="P7" t="n">
-        <v>393.1267991107362</v>
+        <v>393.1634411961273</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29283,28 +29334,28 @@
         <v>0.0512</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.05224304709622278</v>
+        <v>-0.0545263481127719</v>
       </c>
       <c r="J8" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K8" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001776927710577469</v>
+        <v>0.001941011385933611</v>
       </c>
       <c r="M8" t="n">
-        <v>7.346306453536361</v>
+        <v>7.344527600312365</v>
       </c>
       <c r="N8" t="n">
-        <v>87.22604225130411</v>
+        <v>87.13053361063076</v>
       </c>
       <c r="O8" t="n">
-        <v>9.339488329202201</v>
+        <v>9.334373766387907</v>
       </c>
       <c r="P8" t="n">
-        <v>388.1397220369746</v>
+        <v>388.1627602812047</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29361,28 +29412,28 @@
         <v>0.0397</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1488530931845401</v>
+        <v>-0.1508588896617488</v>
       </c>
       <c r="J9" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K9" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0117091515905634</v>
+        <v>0.01206345396239716</v>
       </c>
       <c r="M9" t="n">
-        <v>8.073329121442699</v>
+        <v>8.068340757469016</v>
       </c>
       <c r="N9" t="n">
-        <v>106.0699091427471</v>
+        <v>105.9117243679818</v>
       </c>
       <c r="O9" t="n">
-        <v>10.2990246694892</v>
+        <v>10.29134220439597</v>
       </c>
       <c r="P9" t="n">
-        <v>392.7366488090902</v>
+        <v>392.7569096869017</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29439,28 +29490,28 @@
         <v>0.031</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3211319976875676</v>
+        <v>0.2922713198051066</v>
       </c>
       <c r="J10" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K10" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009132053439063648</v>
+        <v>0.007599466732978288</v>
       </c>
       <c r="M10" t="n">
-        <v>21.63063666828884</v>
+        <v>21.64353928761528</v>
       </c>
       <c r="N10" t="n">
-        <v>613.9455824597655</v>
+        <v>615.2500443559579</v>
       </c>
       <c r="O10" t="n">
-        <v>24.77792530579922</v>
+        <v>24.80423440374562</v>
       </c>
       <c r="P10" t="n">
-        <v>417.2308299229987</v>
+        <v>417.5258694852878</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29498,7 +29549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K625"/>
+  <dimension ref="A1:K626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60052,8 +60103,69 @@
           <t>-36.523258168260696,174.72008557935752</t>
         </is>
       </c>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>-36.52392919156458,174.72031864388845</t>
+        </is>
+      </c>
       <c r="K625" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>-36.51853839555538,174.72183186663028</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>-36.51916165924633,174.721311790478</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>-36.51981638668724,174.72093662326608</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>-36.5204567152244,174.7204859967869</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>-36.521182839074484,174.72046565100675</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>-36.52185735330341,174.72020269148487</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>-36.522561155171225,174.72008514684472</t>
+        </is>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>-36.523258814990584,174.72007265118017</t>
+        </is>
+      </c>
+      <c r="J626" t="inlineStr">
+        <is>
+          <t>-36.523923346221835,174.72036256777935</t>
+        </is>
+      </c>
+      <c r="K626" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0130/nzd0130.xlsx
+++ b/data/nzd0130/nzd0130.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K626"/>
+  <dimension ref="A1:K627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22286,9 +22286,7 @@
       <c r="I625" t="n">
         <v>384.6814285714286</v>
       </c>
-      <c r="J625" t="n">
-        <v>393.94</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>L8</t>
@@ -22325,10 +22323,41 @@
       <c r="I626" t="n">
         <v>383.5214285714285</v>
       </c>
-      <c r="J626" t="n">
-        <v>397.9266666666667</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr"/>
+      <c r="C627" t="inlineStr"/>
+      <c r="D627" t="inlineStr"/>
+      <c r="E627" t="n">
+        <v>388.4142857142857</v>
+      </c>
+      <c r="F627" t="n">
+        <v>388.4742857142857</v>
+      </c>
+      <c r="G627" t="n">
+        <v>379.8022222222222</v>
+      </c>
+      <c r="H627" t="n">
+        <v>370.6122222222222</v>
+      </c>
+      <c r="I627" t="n">
+        <v>372.1642857142857</v>
+      </c>
+      <c r="J627" t="n">
+        <v>440.8233333333333</v>
+      </c>
+      <c r="K627" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -22345,7 +22374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B634"/>
+  <dimension ref="A1:B635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28693,6 +28722,16 @@
       </c>
       <c r="B634" t="n">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -29549,7 +29588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K626"/>
+  <dimension ref="A1:K627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60103,11 +60142,7 @@
           <t>-36.523258168260696,174.72008557935752</t>
         </is>
       </c>
-      <c r="J625" t="inlineStr">
-        <is>
-          <t>-36.52392919156458,174.72031864388845</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>L8</t>
@@ -60160,12 +60195,53 @@
           <t>-36.523258814990584,174.72007265118017</t>
         </is>
       </c>
-      <c r="J626" t="inlineStr">
-        <is>
-          <t>-36.523923346221835,174.72036256777935</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr"/>
+      <c r="C627" t="inlineStr"/>
+      <c r="D627" t="inlineStr"/>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>-36.52048851018528,174.72063430681027</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>-36.52117303487904,174.7204078775597</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>-36.52185269652328,174.72015548731895</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>-36.52255603358555,174.7199747955068</t>
+        </is>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>-36.523265146816534,174.71994607603068</t>
+        </is>
+      </c>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>-36.52386044912522,174.7208351898558</t>
+        </is>
+      </c>
+      <c r="K627" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0130/nzd0130.xlsx
+++ b/data/nzd0130/nzd0130.xlsx
@@ -28908,7 +28908,7 @@
         <v>-0.2180240343891535</v>
       </c>
       <c r="J2" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K2" t="n">
         <v>468</v>
@@ -28986,7 +28986,7 @@
         <v>-0.1436602049144431</v>
       </c>
       <c r="J3" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K3" t="n">
         <v>483</v>
@@ -29064,7 +29064,7 @@
         <v>-0.1446023178419798</v>
       </c>
       <c r="J4" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K4" t="n">
         <v>501</v>
@@ -29139,28 +29139,28 @@
         <v>0.036</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0719107094302322</v>
+        <v>-0.07315230443425622</v>
       </c>
       <c r="J5" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K5" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002130151296770744</v>
+        <v>0.002212456551809239</v>
       </c>
       <c r="M5" t="n">
-        <v>8.693874112623446</v>
+        <v>8.684257426674527</v>
       </c>
       <c r="N5" t="n">
-        <v>136.7624268266491</v>
+        <v>136.517521621581</v>
       </c>
       <c r="O5" t="n">
-        <v>11.6945468841956</v>
+        <v>11.68407127766606</v>
       </c>
       <c r="P5" t="n">
-        <v>393.670791473165</v>
+        <v>393.6833492028318</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29217,28 +29217,28 @@
         <v>0.0365</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01699461437193858</v>
+        <v>-0.01959555927711888</v>
       </c>
       <c r="J6" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K6" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001724427906328874</v>
+        <v>0.0002299213549721291</v>
       </c>
       <c r="M6" t="n">
-        <v>7.617795952907912</v>
+        <v>7.617990426342733</v>
       </c>
       <c r="N6" t="n">
-        <v>96.32158022240954</v>
+        <v>96.23029548272523</v>
       </c>
       <c r="O6" t="n">
-        <v>9.814355823099627</v>
+        <v>9.809704148582934</v>
       </c>
       <c r="P6" t="n">
-        <v>396.0121551909353</v>
+        <v>396.0380990883065</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29295,28 +29295,28 @@
         <v>0.0461</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03443301583581371</v>
+        <v>0.02924140999208001</v>
       </c>
       <c r="J7" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K7" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007717721266358168</v>
+        <v>0.0005563314438605804</v>
       </c>
       <c r="M7" t="n">
-        <v>7.242874121641368</v>
+        <v>7.258547576315387</v>
       </c>
       <c r="N7" t="n">
-        <v>88.23988583851187</v>
+        <v>88.46585289570245</v>
       </c>
       <c r="O7" t="n">
-        <v>9.393608776104733</v>
+        <v>9.405628787896237</v>
       </c>
       <c r="P7" t="n">
-        <v>393.1634411961273</v>
+        <v>393.2156136380819</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29373,28 +29373,28 @@
         <v>0.0512</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0545263481127719</v>
+        <v>-0.06040375242621238</v>
       </c>
       <c r="J8" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K8" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001941011385933611</v>
+        <v>0.002376143815393195</v>
       </c>
       <c r="M8" t="n">
-        <v>7.344527600312365</v>
+        <v>7.362644466904527</v>
       </c>
       <c r="N8" t="n">
-        <v>87.13053361063076</v>
+        <v>87.47015572935527</v>
       </c>
       <c r="O8" t="n">
-        <v>9.334373766387907</v>
+        <v>9.352548087518999</v>
       </c>
       <c r="P8" t="n">
-        <v>388.1627602812047</v>
+        <v>388.2222708091582</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29451,28 +29451,28 @@
         <v>0.0397</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1508588896617488</v>
+        <v>-0.1571138341339668</v>
       </c>
       <c r="J9" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K9" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01206345396239716</v>
+        <v>0.01305409202955654</v>
       </c>
       <c r="M9" t="n">
-        <v>8.068340757469016</v>
+        <v>8.087625646892644</v>
       </c>
       <c r="N9" t="n">
-        <v>105.9117243679818</v>
+        <v>106.257231585622</v>
       </c>
       <c r="O9" t="n">
-        <v>10.29134220439597</v>
+        <v>10.30811484150337</v>
       </c>
       <c r="P9" t="n">
-        <v>392.7569096869017</v>
+        <v>392.8203123965999</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29529,28 +29529,28 @@
         <v>0.031</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2922713198051066</v>
+        <v>0.3286643850606176</v>
       </c>
       <c r="J10" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K10" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007599466732978288</v>
+        <v>0.009602324070737245</v>
       </c>
       <c r="M10" t="n">
-        <v>21.64353928761528</v>
+        <v>21.62056051323784</v>
       </c>
       <c r="N10" t="n">
-        <v>615.2500443559579</v>
+        <v>612.9608079808928</v>
       </c>
       <c r="O10" t="n">
-        <v>24.80423440374562</v>
+        <v>24.75804531825752</v>
       </c>
       <c r="P10" t="n">
-        <v>417.5258694852878</v>
+        <v>417.1534892796781</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">

--- a/data/nzd0130/nzd0130.xlsx
+++ b/data/nzd0130/nzd0130.xlsx
@@ -28896,13 +28896,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0149</v>
+        <v>0.0192</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0165</v>
+        <v>0.0203</v>
       </c>
       <c r="I2" t="n">
         <v>-0.2180151844844592</v>
@@ -28974,13 +28974,13 @@
         <v>0.1251816143813375</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02</v>
+        <v>0.0249</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0203</v>
+        <v>0.0261</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1436602049144431</v>
@@ -29052,13 +29052,13 @@
         <v>0.2503632287622913</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0294</v>
+        <v>0.0347</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0305</v>
+        <v>0.0367</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1445989795227999</v>
@@ -29130,13 +29130,13 @@
         <v>0.3755307582671266</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0347</v>
+        <v>0.0443</v>
       </c>
       <c r="H5" t="n">
-        <v>0.036</v>
+        <v>0.0459</v>
       </c>
       <c r="I5" t="n">
         <v>-0.07313628762568901</v>
@@ -29208,13 +29208,13 @@
         <v>0.5006186416059594</v>
       </c>
       <c r="F6" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0347</v>
+        <v>0.0427</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0365</v>
+        <v>0.0474</v>
       </c>
       <c r="I6" t="n">
         <v>-0.0195809367810174</v>
@@ -29286,13 +29286,13 @@
         <v>0.6257948602781886</v>
       </c>
       <c r="F7" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0419</v>
+        <v>0.049</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0461</v>
+        <v>0.0573</v>
       </c>
       <c r="I7" t="n">
         <v>0.0292617633431841</v>
@@ -29364,13 +29364,13 @@
         <v>0.7509764746587494</v>
       </c>
       <c r="F8" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0431</v>
+        <v>0.0521</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0512</v>
+        <v>0.0635</v>
       </c>
       <c r="I8" t="n">
         <v>-0.06038546576248226</v>
@@ -29442,13 +29442,13 @@
         <v>0.8760906593937985</v>
       </c>
       <c r="F9" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0345</v>
+        <v>0.0432</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0397</v>
+        <v>0.0504</v>
       </c>
       <c r="I9" t="n">
         <v>-0.1570969813989457</v>
@@ -29520,13 +29520,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0297</v>
+        <v>0.0182</v>
       </c>
       <c r="H10" t="n">
-        <v>0.031</v>
+        <v>0.0201</v>
       </c>
       <c r="I10" t="n">
         <v>0.3286521725927216</v>
